--- a/BackTest/2020-01-21 BackTest LTC.xlsx
+++ b/BackTest/2020-01-21 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>740.33797735</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>773.1112415499999</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>768.2870415499999</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>738.1039582199998</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>728.1039582199998</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -2695,14 +2695,10 @@
         <v>10.05974779999983</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>64150</v>
-      </c>
-      <c r="J70" t="n">
-        <v>64150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2735,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2771,19 +2761,11 @@
         <v>-5.556052200000174</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>64100</v>
-      </c>
-      <c r="J72" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2812,19 +2794,11 @@
         <v>-5.556052200000174</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>64100</v>
-      </c>
-      <c r="J73" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2853,19 +2827,11 @@
         <v>-5.556052200000174</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>64100</v>
-      </c>
-      <c r="J74" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2894,19 +2860,11 @@
         <v>-1.553652200000174</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>64100</v>
-      </c>
-      <c r="J75" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2935,19 +2893,11 @@
         <v>76.47364779999982</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>64300</v>
-      </c>
-      <c r="J76" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2979,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3015,19 +2959,11 @@
         <v>67.56044779999982</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>64200</v>
-      </c>
-      <c r="J78" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3056,19 +2992,11 @@
         <v>67.56044779999982</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>64250</v>
-      </c>
-      <c r="J79" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3097,19 +3025,11 @@
         <v>67.56044779999982</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>64250</v>
-      </c>
-      <c r="J80" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3138,19 +3058,11 @@
         <v>14.01644779999982</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>64250</v>
-      </c>
-      <c r="J81" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3179,19 +3091,11 @@
         <v>14.01644779999982</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>64050</v>
-      </c>
-      <c r="J82" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3259,19 +3157,11 @@
         <v>22.54154779999983</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>64000</v>
-      </c>
-      <c r="J84" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3303,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3342,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3381,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3420,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3459,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3498,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3537,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3576,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3615,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3654,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3693,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3732,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3771,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3807,19 +3619,11 @@
         <v>29.16049339999984</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>64500</v>
-      </c>
-      <c r="J98" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3851,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3890,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3968,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4007,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4046,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4085,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4124,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4163,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4202,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4241,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4280,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4319,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4358,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4397,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4433,19 +4147,11 @@
         <v>144.3248933999999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>64550</v>
-      </c>
-      <c r="J114" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4477,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4516,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4555,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4594,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4633,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4672,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4711,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4750,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4789,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4828,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4867,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4906,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4945,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4984,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5023,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5059,19 +4675,13 @@
         <v>324.2055933999999</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>1.013706157443492</v>
+        <v>1</v>
       </c>
       <c r="M130" t="inlineStr"/>
     </row>
@@ -5098,7 +4708,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5131,7 +4741,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5164,7 +4774,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5329,7 +4939,7 @@
         <v>341.1293933999999</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5362,7 +4972,7 @@
         <v>341.1293933999999</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5395,7 +5005,7 @@
         <v>355.9293933999999</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5428,7 +5038,7 @@
         <v>340.1318933999999</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5461,7 +5071,7 @@
         <v>311.0025933999999</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5494,7 +5104,7 @@
         <v>202.6117933999998</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5527,7 +5137,7 @@
         <v>107.7000933999998</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6187,7 +5797,7 @@
         <v>103.4742641299998</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6220,7 +5830,7 @@
         <v>103.4742641299998</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6253,7 +5863,7 @@
         <v>103.4742641299998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6286,7 +5896,7 @@
         <v>103.4742641299998</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6319,7 +5929,7 @@
         <v>98.67426412999983</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6352,7 +5962,7 @@
         <v>101.8317641299998</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6385,7 +5995,7 @@
         <v>88.84526412999983</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6418,7 +6028,7 @@
         <v>69.28226412999983</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6451,7 +6061,7 @@
         <v>30.64036412999983</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6484,7 +6094,7 @@
         <v>56.66646412999983</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6517,7 +6127,7 @@
         <v>218.2197641299998</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6550,7 +6160,7 @@
         <v>-82.48023587000014</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6583,7 +6193,7 @@
         <v>-264.9273358700001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6616,7 +6226,7 @@
         <v>-264.9273358700001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6649,7 +6259,7 @@
         <v>-289.4902358700002</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6682,7 +6292,7 @@
         <v>-289.4902358700002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7012,7 +6622,7 @@
         <v>-290.6875358700002</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7045,7 +6655,7 @@
         <v>-322.5115358700002</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7078,7 +6688,7 @@
         <v>-261.1645358700002</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7540,7 +7150,7 @@
         <v>165.9161641299998</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7573,7 +7183,7 @@
         <v>89.83176412999977</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7606,7 +7216,7 @@
         <v>89.83176412999977</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7639,7 +7249,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7672,7 +7282,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7705,7 +7315,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7738,7 +7348,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7771,7 +7381,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7804,7 +7414,7 @@
         <v>79.38226412999977</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7837,7 +7447,7 @@
         <v>96.61796412999976</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7870,7 +7480,7 @@
         <v>95.78296412999977</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7903,7 +7513,7 @@
         <v>95.78296412999977</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7936,7 +7546,7 @@
         <v>74.69156412999976</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7969,7 +7579,7 @@
         <v>77.69156412999976</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8002,7 +7612,7 @@
         <v>62.73326412999976</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8035,7 +7645,7 @@
         <v>83.78666306999976</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8068,7 +7678,7 @@
         <v>83.28666306999976</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8101,7 +7711,7 @@
         <v>62.23326306999977</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8134,7 +7744,7 @@
         <v>43.40496306999977</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8167,7 +7777,7 @@
         <v>25.43796306999977</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8200,7 +7810,7 @@
         <v>105.8925630699998</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8233,7 +7843,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8266,7 +7876,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8299,7 +7909,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8332,7 +7942,7 @@
         <v>32.14576306999977</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8365,7 +7975,7 @@
         <v>-5.208136930000229</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8398,7 +8008,7 @@
         <v>-325.6579369300002</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8431,7 +8041,7 @@
         <v>-284.9003369300002</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8464,7 +8074,7 @@
         <v>-284.9003369300002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8497,7 +8107,7 @@
         <v>-136.1944369300002</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8530,7 +8140,7 @@
         <v>-131.1944369300002</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8563,7 +8173,7 @@
         <v>-131.5667387500002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8596,7 +8206,7 @@
         <v>-131.5667387500002</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8629,7 +8239,7 @@
         <v>-174.3914446200002</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8662,7 +8272,7 @@
         <v>-174.3914446200002</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8695,7 +8305,7 @@
         <v>-182.0503446200002</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8728,7 +8338,7 @@
         <v>-182.0503446200002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8761,7 +8371,7 @@
         <v>-183.2835446200002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8794,7 +8404,7 @@
         <v>-183.2835446200002</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8827,7 +8437,7 @@
         <v>-196.0387446200002</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8860,7 +8470,7 @@
         <v>-347.3851446200002</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8893,7 +8503,7 @@
         <v>-345.7851446200002</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8926,7 +8536,7 @@
         <v>-355.7851446200002</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8959,7 +8569,7 @@
         <v>-355.6795446200002</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8992,7 +8602,7 @@
         <v>-385.9102446200002</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9025,7 +8635,7 @@
         <v>-382.9703446200002</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9091,7 +8701,7 @@
         <v>-382.9955446200001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9124,7 +8734,7 @@
         <v>-458.2455446200001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9190,7 +8800,7 @@
         <v>-432.6235446200002</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9223,7 +8833,7 @@
         <v>-422.6235446200002</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -11533,10 +11143,14 @@
         <v>-1635.42238677</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>64850</v>
+      </c>
+      <c r="J326" t="n">
+        <v>64850</v>
+      </c>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
@@ -11566,11 +11180,19 @@
         <v>-1619.42700927</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>64850</v>
+      </c>
+      <c r="J327" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11602,8 +11224,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11632,11 +11260,19 @@
         <v>-1616.83990927</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>64750</v>
+      </c>
+      <c r="J329" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11665,11 +11301,19 @@
         <v>-1616.83990927</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>64850</v>
+      </c>
+      <c r="J330" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11698,11 +11342,19 @@
         <v>-1616.83990927</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>64850</v>
+      </c>
+      <c r="J331" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11734,8 +11386,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11767,8 +11425,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11800,8 +11464,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11833,8 +11503,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11866,8 +11542,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11896,11 +11578,19 @@
         <v>-1588.01241374</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>64850</v>
+      </c>
+      <c r="J337" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11929,11 +11619,19 @@
         <v>-1620.31541374</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>64900</v>
+      </c>
+      <c r="J338" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11965,8 +11663,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11998,8 +11702,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12031,8 +11741,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12064,8 +11780,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12097,8 +11819,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12130,8 +11858,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12163,8 +11897,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12196,8 +11936,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12229,8 +11975,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12262,8 +12014,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12295,8 +12053,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12328,8 +12092,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12361,8 +12131,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12394,8 +12170,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12427,8 +12209,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12460,8 +12248,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12493,8 +12287,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12526,8 +12326,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12559,8 +12365,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12592,8 +12404,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12625,8 +12443,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12658,8 +12482,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12691,8 +12521,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12724,8 +12560,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12757,8 +12599,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12790,8 +12638,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12823,8 +12677,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12856,8 +12716,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12889,8 +12755,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12922,8 +12794,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12955,8 +12833,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12988,8 +12872,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13021,8 +12911,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13054,8 +12950,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13087,8 +12989,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13120,8 +13028,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13153,8 +13067,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13186,8 +13106,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13219,8 +13145,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13252,8 +13184,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13285,8 +13223,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13318,8 +13262,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13351,8 +13301,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13384,8 +13340,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13417,8 +13379,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13450,8 +13418,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13483,8 +13457,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13513,11 +13493,17 @@
         <v>-1226.11441374</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13549,8 +13535,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13579,11 +13571,17 @@
         <v>-1203.36161374</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13615,8 +13613,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13648,8 +13652,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13678,11 +13688,17 @@
         <v>-1197.95731374</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13714,8 +13730,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13747,8 +13769,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13777,11 +13805,17 @@
         <v>-1113.834836360001</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13813,8 +13847,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13843,11 +13883,17 @@
         <v>-1129.250936360001</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13879,8 +13925,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13912,8 +13964,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13945,8 +14003,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13978,8 +14042,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14011,8 +14081,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14044,8 +14120,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14077,8 +14159,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14110,8 +14198,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14143,8 +14237,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14176,8 +14276,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14209,8 +14315,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14242,8 +14354,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14275,8 +14393,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14308,8 +14432,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14341,8 +14471,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14374,8 +14510,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14407,8 +14549,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14440,8 +14588,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14473,8 +14627,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14506,8 +14666,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14539,8 +14705,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14572,8 +14744,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14605,8 +14783,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14638,8 +14822,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14671,8 +14861,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14704,8 +14900,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14737,8 +14939,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14770,8 +14978,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14803,8 +15017,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14836,8 +15056,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14869,8 +15095,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14902,8 +15134,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14935,8 +15173,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14968,8 +15212,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15001,8 +15251,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15034,8 +15290,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15067,8 +15329,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15100,8 +15368,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15133,8 +15407,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15166,8 +15446,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15199,8 +15485,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15232,8 +15524,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15265,8 +15563,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15298,8 +15602,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15331,8 +15641,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15364,8 +15680,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15397,8 +15719,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15430,8 +15758,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15463,8 +15797,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15496,8 +15836,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15529,8 +15875,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15562,8 +15914,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15595,8 +15953,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15628,8 +15992,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15661,8 +16031,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15694,8 +16070,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15727,8 +16109,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15760,8 +16148,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15793,8 +16187,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15826,8 +16226,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15859,8 +16265,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15892,8 +16304,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15925,8 +16343,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15958,8 +16382,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15991,8 +16421,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16024,8 +16460,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16057,8 +16499,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16090,8 +16538,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16123,8 +16577,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16156,8 +16616,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16189,8 +16655,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16222,8 +16694,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16255,8 +16733,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16285,11 +16769,19 @@
         <v>-1292.766375120001</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>64600</v>
+      </c>
+      <c r="J470" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16318,11 +16810,19 @@
         <v>-1301.009375120001</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>64700</v>
+      </c>
+      <c r="J471" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16351,11 +16851,19 @@
         <v>-1301.009375120001</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>64650</v>
+      </c>
+      <c r="J472" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16384,11 +16892,19 @@
         <v>-1280.853275120001</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>64650</v>
+      </c>
+      <c r="J473" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16420,8 +16936,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16453,8 +16975,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16486,8 +17014,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16519,8 +17053,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16552,8 +17092,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16585,8 +17131,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16618,8 +17170,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16651,8 +17209,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16684,8 +17248,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16717,8 +17287,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16750,8 +17326,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16783,8 +17365,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16816,8 +17404,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16849,8 +17443,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16882,8 +17482,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16915,8 +17521,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16948,8 +17560,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16981,8 +17599,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17014,8 +17638,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17047,8 +17677,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17080,8 +17716,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17113,8 +17755,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17146,8 +17794,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17179,8 +17833,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17212,8 +17872,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17245,8 +17911,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17278,8 +17950,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17311,8 +17989,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17344,8 +18028,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17377,8 +18067,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17410,8 +18106,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17443,8 +18145,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17476,8 +18184,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17509,8 +18223,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17542,8 +18262,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17575,8 +18301,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17608,8 +18340,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17641,8 +18379,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17674,8 +18418,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17707,8 +18457,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17740,8 +18496,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17773,8 +18535,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17806,8 +18574,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17839,8 +18613,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17872,8 +18652,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17902,11 +18688,19 @@
         <v>-1355.814535620001</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>65050</v>
+      </c>
+      <c r="J519" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17935,11 +18729,19 @@
         <v>-1355.522635620001</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>65050</v>
+      </c>
+      <c r="J520" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17968,11 +18770,19 @@
         <v>-1355.522635620001</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>65100</v>
+      </c>
+      <c r="J521" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18001,11 +18811,19 @@
         <v>-1355.533435620001</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>65100</v>
+      </c>
+      <c r="J522" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18034,11 +18852,19 @@
         <v>-1353.772165430001</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>65050</v>
+      </c>
+      <c r="J523" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18067,11 +18893,19 @@
         <v>-1353.772165430001</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>65100</v>
+      </c>
+      <c r="J524" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18100,11 +18934,19 @@
         <v>-1353.772165430001</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>65100</v>
+      </c>
+      <c r="J525" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18133,11 +18975,19 @@
         <v>-1254.330135620001</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>65100</v>
+      </c>
+      <c r="J526" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18166,11 +19016,19 @@
         <v>-1255.803135620001</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>65200</v>
+      </c>
+      <c r="J527" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18202,8 +19060,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18235,8 +19099,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18268,8 +19138,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18301,8 +19177,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18334,8 +19216,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18367,8 +19255,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18400,8 +19294,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18433,8 +19333,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18466,8 +19372,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18499,8 +19411,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18532,8 +19450,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18565,8 +19489,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18598,8 +19528,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18628,11 +19564,19 @@
         <v>-1333.582335620001</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>64950</v>
+      </c>
+      <c r="J541" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18664,8 +19608,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18697,8 +19647,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18727,11 +19683,19 @@
         <v>-1415.655235620001</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>64850</v>
+      </c>
+      <c r="J544" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18760,11 +19724,19 @@
         <v>-1415.655235620001</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>64650</v>
+      </c>
+      <c r="J545" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18793,11 +19765,19 @@
         <v>-1354.531635620001</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>64650</v>
+      </c>
+      <c r="J546" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18826,11 +19806,19 @@
         <v>-1361.531635620001</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>64850</v>
+      </c>
+      <c r="J547" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18859,11 +19847,19 @@
         <v>-1361.531635620001</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>64750</v>
+      </c>
+      <c r="J548" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18892,11 +19888,19 @@
         <v>-1409.639235620001</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>64750</v>
+      </c>
+      <c r="J549" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18925,11 +19929,19 @@
         <v>-1406.656335620001</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>64600</v>
+      </c>
+      <c r="J550" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18958,11 +19970,19 @@
         <v>-1393.162435620001</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>64650</v>
+      </c>
+      <c r="J551" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18991,11 +20011,19 @@
         <v>-1115.136535620001</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>64700</v>
+      </c>
+      <c r="J552" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19024,11 +20052,19 @@
         <v>-1115.136535620001</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>64800</v>
+      </c>
+      <c r="J553" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19057,11 +20093,19 @@
         <v>-1113.165635620001</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>64800</v>
+      </c>
+      <c r="J554" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19093,8 +20137,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19126,8 +20176,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19159,8 +20215,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19192,8 +20254,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19222,11 +20290,19 @@
         <v>-1282.44673562</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>64650</v>
+      </c>
+      <c r="J559" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19255,11 +20331,19 @@
         <v>-1282.376735620001</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>64600</v>
+      </c>
+      <c r="J560" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19288,11 +20372,19 @@
         <v>-1282.376735620001</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>64700</v>
+      </c>
+      <c r="J561" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19324,8 +20416,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19354,11 +20452,19 @@
         <v>-1322.735535620001</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>64450</v>
+      </c>
+      <c r="J563" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19387,11 +20493,19 @@
         <v>-1333.919235620001</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>64450</v>
+      </c>
+      <c r="J564" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19420,11 +20534,19 @@
         <v>-1333.919235620001</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>64350</v>
+      </c>
+      <c r="J565" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19453,11 +20575,19 @@
         <v>-1481.353035620001</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>64350</v>
+      </c>
+      <c r="J566" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19486,11 +20616,19 @@
         <v>-1481.353035620001</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>64250</v>
+      </c>
+      <c r="J567" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19519,11 +20657,19 @@
         <v>-1460.013935620001</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>64250</v>
+      </c>
+      <c r="J568" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19552,11 +20698,19 @@
         <v>-1486.809435620001</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>64500</v>
+      </c>
+      <c r="J569" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19585,11 +20739,19 @@
         <v>-1479.809435620001</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>64400</v>
+      </c>
+      <c r="J570" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19618,11 +20780,19 @@
         <v>-1484.220935620001</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>64450</v>
+      </c>
+      <c r="J571" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19651,11 +20821,19 @@
         <v>-1485.035835620001</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>64350</v>
+      </c>
+      <c r="J572" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19684,11 +20862,19 @@
         <v>-1544.660535620001</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>64300</v>
+      </c>
+      <c r="J573" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19717,11 +20903,19 @@
         <v>-1544.599635620001</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>64250</v>
+      </c>
+      <c r="J574" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19750,11 +20944,19 @@
         <v>-1534.599635620001</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>64500</v>
+      </c>
+      <c r="J575" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19783,11 +20985,19 @@
         <v>-1534.800935620001</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>64600</v>
+      </c>
+      <c r="J576" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19816,11 +21026,19 @@
         <v>-1536.724535620001</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>64550</v>
+      </c>
+      <c r="J577" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19849,11 +21067,19 @@
         <v>-1526.276535620001</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>64350</v>
+      </c>
+      <c r="J578" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19882,11 +21108,19 @@
         <v>-1516.276535620001</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>64400</v>
+      </c>
+      <c r="J579" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19915,11 +21149,19 @@
         <v>-1517.061535620001</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>64500</v>
+      </c>
+      <c r="J580" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19948,11 +21190,19 @@
         <v>-1513.812935620001</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>64450</v>
+      </c>
+      <c r="J581" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19981,11 +21231,19 @@
         <v>-1518.565935620001</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>64500</v>
+      </c>
+      <c r="J582" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20014,11 +21272,19 @@
         <v>-1523.370735620001</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>64450</v>
+      </c>
+      <c r="J583" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20050,8 +21316,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20080,11 +21352,19 @@
         <v>-1653.835435620001</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>64200</v>
+      </c>
+      <c r="J585" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20113,11 +21393,19 @@
         <v>-1664.573335620001</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>64200</v>
+      </c>
+      <c r="J586" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20146,11 +21434,19 @@
         <v>-1724.805035620001</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>64150</v>
+      </c>
+      <c r="J587" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20179,11 +21475,19 @@
         <v>-1724.805035620001</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>63950</v>
+      </c>
+      <c r="J588" t="n">
+        <v>64850</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20212,15 +21516,19 @@
         <v>-1716.277535620001</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>63950</v>
       </c>
       <c r="J589" t="n">
-        <v>63950</v>
-      </c>
-      <c r="K589" t="inlineStr"/>
+        <v>64850</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20249,15 +21557,17 @@
         <v>-1678.023735620001</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>64000</v>
+      </c>
       <c r="J590" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L590" t="n">
@@ -20288,17 +21598,17 @@
         <v>-1604.576535620001</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>64050</v>
       </c>
       <c r="J591" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L591" t="n">
@@ -20329,17 +21639,17 @@
         <v>-1585.948535620001</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>64150</v>
       </c>
       <c r="J592" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L592" t="n">
@@ -20370,13 +21680,13 @@
         <v>-1582.933235620001</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>64200</v>
       </c>
       <c r="J593" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20411,13 +21721,13 @@
         <v>-1682.933235620001</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>64250</v>
       </c>
       <c r="J594" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20452,13 +21762,13 @@
         <v>-1653.975035620001</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I595" t="n">
         <v>64050</v>
       </c>
       <c r="J595" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20493,11 +21803,13 @@
         <v>-1722.019835620001</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>64150</v>
+      </c>
       <c r="J596" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20532,11 +21844,13 @@
         <v>-1739.892435620001</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>64050</v>
+      </c>
       <c r="J597" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20571,13 +21885,13 @@
         <v>-1718.838535620001</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>64000</v>
       </c>
       <c r="J598" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -20612,13 +21926,13 @@
         <v>-1717.888935620001</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I599" t="n">
         <v>64050</v>
       </c>
       <c r="J599" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -20653,13 +21967,13 @@
         <v>-1727.888935620001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I600" t="n">
         <v>64200</v>
       </c>
       <c r="J600" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -20694,13 +22008,13 @@
         <v>-1727.888935620001</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I601" t="n">
         <v>64150</v>
       </c>
       <c r="J601" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -20735,13 +22049,13 @@
         <v>-1740.602835620001</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I602" t="n">
         <v>64150</v>
       </c>
       <c r="J602" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -20776,13 +22090,13 @@
         <v>-1446.373835620001</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I603" t="n">
         <v>64100</v>
       </c>
       <c r="J603" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -20817,11 +22131,13 @@
         <v>-1251.209935620001</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>64200</v>
+      </c>
       <c r="J604" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -20856,11 +22172,13 @@
         <v>-1248.46213562</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>64350</v>
+      </c>
       <c r="J605" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -20895,11 +22213,13 @@
         <v>-1233.216335620001</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>64400</v>
+      </c>
       <c r="J606" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -20938,7 +22258,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -20977,7 +22297,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21016,7 +22336,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21055,7 +22375,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -21094,7 +22414,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -21133,7 +22453,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -21172,7 +22492,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -21207,13 +22527,11 @@
         <v>-1096.387435620001</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="n">
-        <v>64500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -21248,13 +22566,11 @@
         <v>-1088.524335620001</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="n">
-        <v>64650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -21289,13 +22605,11 @@
         <v>-1088.424335620001</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -21330,13 +22644,11 @@
         <v>-931.3943356200007</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="n">
-        <v>64950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -21375,7 +22687,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -21414,7 +22726,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -21453,7 +22765,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -21492,7 +22804,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -21531,7 +22843,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21570,7 +22882,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21609,7 +22921,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21648,7 +22960,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21683,11 +22995,11 @@
         <v>-770.0189356200008</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21722,11 +23034,11 @@
         <v>-733.8683356200008</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21761,11 +23073,11 @@
         <v>-733.8683356200008</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21804,7 +23116,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21839,11 +23151,11 @@
         <v>-733.8683356200008</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21878,11 +23190,11 @@
         <v>-743.8683356200008</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21917,11 +23229,11 @@
         <v>-743.7917072700009</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21960,7 +23272,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21995,11 +23307,11 @@
         <v>-731.8407072700008</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -22034,11 +23346,11 @@
         <v>-679.2320072700008</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>63950</v>
+        <v>64850</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -22051,6 +23363,6 @@
       <c r="M635" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest LTC.xlsx
+++ b/BackTest/2020-01-21 BackTest LTC.xlsx
@@ -451,7 +451,7 @@
         <v>864.19587735</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>863.75567735</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>839.00947735</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>740.33797735</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>738.1039582199998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>144.5784933999999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>255.6136933999999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>254.8493933999999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>254.8493933999999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>284.8493933999999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>358.7720933999999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>359.2046933999999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>344.2046933999999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>344.2046933999999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>354.2046933999999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>354.2046933999999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>354.7046933999999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>354.7046933999999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>293.7317933999999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>293.7317933999999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>324.2055933999999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>299.0038933999999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>311.0038933999999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>343.7286933999999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>343.7286933999999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>355.9293933999999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>340.1318933999999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>311.0025933999999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>202.6117933999998</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>107.7000933999998</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>6.761493399999843</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>8.180093399999842</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>2.221993399999842</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>32.79029339999984</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>43.02439339999984</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>52.26029339999984</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>59.06946412999977</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>72.89606412999977</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>74.88276412999977</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-38.62823587000022</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>70.58656412999977</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>70.58656412999977</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>169.7072641299998</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>165.9161641299998</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>165.9161641299998</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>165.9161641299998</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>89.83176412999977</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>89.83176412999977</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>87.58226412999977</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>79.38226412999977</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>96.61796412999976</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>95.78296412999977</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>95.78296412999977</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>74.69156412999976</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>77.69156412999976</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>62.73326412999976</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>83.78666306999976</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>83.28666306999976</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>62.23326306999977</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>43.40496306999977</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>25.43796306999977</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>105.8925630699998</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>103.6910630699998</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>32.14576306999977</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-5.208136930000229</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-325.6579369300002</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-131.5667387500002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -19327,14 +19327,10 @@
         <v>-1544.599635620001</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>64250</v>
-      </c>
-      <c r="J574" t="n">
-        <v>64250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
@@ -19364,19 +19360,11 @@
         <v>-1534.599635620001</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>64500</v>
-      </c>
-      <c r="J575" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19408,14 +19396,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19477,14 +19459,10 @@
         <v>-1526.276535620001</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>64350</v>
-      </c>
-      <c r="J578" t="n">
-        <v>64350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
@@ -19514,19 +19492,11 @@
         <v>-1516.276535620001</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>64400</v>
-      </c>
-      <c r="J579" t="n">
-        <v>64350</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19558,14 +19528,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>64350</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19594,14 +19558,10 @@
         <v>-1513.812935620001</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>64450</v>
-      </c>
-      <c r="J581" t="n">
-        <v>64450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
@@ -19631,19 +19591,11 @@
         <v>-1518.565935620001</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>64500</v>
-      </c>
-      <c r="J582" t="n">
-        <v>64450</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19675,14 +19627,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>64450</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19744,14 +19690,10 @@
         <v>-1653.835435620001</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>64200</v>
-      </c>
-      <c r="J585" t="n">
-        <v>64200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
@@ -19781,265 +19723,237 @@
         <v>-1664.573335620001</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>64200</v>
-      </c>
-      <c r="J586" t="n">
-        <v>64200</v>
-      </c>
-      <c r="K586" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>64150</v>
+      </c>
+      <c r="C587" t="n">
+        <v>63950</v>
+      </c>
+      <c r="D587" t="n">
+        <v>64150</v>
+      </c>
+      <c r="E587" t="n">
+        <v>63900</v>
+      </c>
+      <c r="F587" t="n">
+        <v>60.2317</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-1724.805035620001</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>64050</v>
+      </c>
+      <c r="C588" t="n">
+        <v>63950</v>
+      </c>
+      <c r="D588" t="n">
+        <v>64050</v>
+      </c>
+      <c r="E588" t="n">
+        <v>63950</v>
+      </c>
+      <c r="F588" t="n">
+        <v>3.6996</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-1724.805035620001</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C589" t="n">
+        <v>64000</v>
+      </c>
+      <c r="D589" t="n">
+        <v>64000</v>
+      </c>
+      <c r="E589" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F589" t="n">
+        <v>8.5275</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-1716.277535620001</v>
+      </c>
+      <c r="H589" t="n">
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>63950</v>
+      </c>
+      <c r="J589" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C590" t="n">
+        <v>64050</v>
+      </c>
+      <c r="D590" t="n">
+        <v>64050</v>
+      </c>
+      <c r="E590" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F590" t="n">
+        <v>38.2538</v>
+      </c>
+      <c r="G590" t="n">
+        <v>-1678.023735620001</v>
+      </c>
+      <c r="H590" t="n">
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>64000</v>
+      </c>
+      <c r="J590" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K590" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>64050</v>
+      </c>
+      <c r="C591" t="n">
         <v>64150</v>
       </c>
-      <c r="C587" t="n">
+      <c r="D591" t="n">
+        <v>64150</v>
+      </c>
+      <c r="E591" t="n">
+        <v>64050</v>
+      </c>
+      <c r="F591" t="n">
+        <v>73.4472</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-1604.576535620001</v>
+      </c>
+      <c r="H591" t="n">
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>64050</v>
+      </c>
+      <c r="J591" t="n">
         <v>63950</v>
       </c>
-      <c r="D587" t="n">
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
         <v>64150</v>
       </c>
-      <c r="E587" t="n">
-        <v>63900</v>
-      </c>
-      <c r="F587" t="n">
-        <v>60.2317</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-1724.805035620001</v>
-      </c>
-      <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
+      <c r="C592" t="n">
+        <v>64200</v>
+      </c>
+      <c r="D592" t="n">
+        <v>64200</v>
+      </c>
+      <c r="E592" t="n">
         <v>64150</v>
       </c>
-      <c r="J587" t="n">
-        <v>64200</v>
-      </c>
-      <c r="K587" t="inlineStr">
+      <c r="F592" t="n">
+        <v>18.628</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-1585.948535620001</v>
+      </c>
+      <c r="H592" t="n">
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>64150</v>
+      </c>
+      <c r="J592" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K592" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>64050</v>
-      </c>
-      <c r="C588" t="n">
-        <v>63950</v>
-      </c>
-      <c r="D588" t="n">
-        <v>64050</v>
-      </c>
-      <c r="E588" t="n">
-        <v>63950</v>
-      </c>
-      <c r="F588" t="n">
-        <v>3.6996</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-1724.805035620001</v>
-      </c>
-      <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>63950</v>
-      </c>
-      <c r="J588" t="n">
-        <v>64200</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>64000</v>
-      </c>
-      <c r="C589" t="n">
-        <v>64000</v>
-      </c>
-      <c r="D589" t="n">
-        <v>64000</v>
-      </c>
-      <c r="E589" t="n">
-        <v>64000</v>
-      </c>
-      <c r="F589" t="n">
-        <v>8.5275</v>
-      </c>
-      <c r="G589" t="n">
-        <v>-1716.277535620001</v>
-      </c>
-      <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>63950</v>
-      </c>
-      <c r="J589" t="n">
-        <v>64200</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>64000</v>
-      </c>
-      <c r="C590" t="n">
-        <v>64050</v>
-      </c>
-      <c r="D590" t="n">
-        <v>64050</v>
-      </c>
-      <c r="E590" t="n">
-        <v>64000</v>
-      </c>
-      <c r="F590" t="n">
-        <v>38.2538</v>
-      </c>
-      <c r="G590" t="n">
-        <v>-1678.023735620001</v>
-      </c>
-      <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>64000</v>
-      </c>
-      <c r="J590" t="n">
-        <v>64200</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>64050</v>
-      </c>
-      <c r="C591" t="n">
-        <v>64150</v>
-      </c>
-      <c r="D591" t="n">
-        <v>64150</v>
-      </c>
-      <c r="E591" t="n">
-        <v>64050</v>
-      </c>
-      <c r="F591" t="n">
-        <v>73.4472</v>
-      </c>
-      <c r="G591" t="n">
-        <v>-1604.576535620001</v>
-      </c>
-      <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>64050</v>
-      </c>
-      <c r="J591" t="n">
-        <v>64200</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>64150</v>
-      </c>
-      <c r="C592" t="n">
-        <v>64200</v>
-      </c>
-      <c r="D592" t="n">
-        <v>64200</v>
-      </c>
-      <c r="E592" t="n">
-        <v>64150</v>
-      </c>
-      <c r="F592" t="n">
-        <v>18.628</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-1585.948535620001</v>
-      </c>
-      <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>64150</v>
-      </c>
-      <c r="J592" t="n">
-        <v>64200</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20074,7 +19988,7 @@
         <v>64200</v>
       </c>
       <c r="J593" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20115,7 +20029,7 @@
         <v>64250</v>
       </c>
       <c r="J594" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20156,7 +20070,7 @@
         <v>64050</v>
       </c>
       <c r="J595" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20197,7 +20111,7 @@
         <v>64150</v>
       </c>
       <c r="J596" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20238,7 +20152,7 @@
         <v>64050</v>
       </c>
       <c r="J597" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20279,7 +20193,7 @@
         <v>64000</v>
       </c>
       <c r="J598" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -20320,7 +20234,7 @@
         <v>64050</v>
       </c>
       <c r="J599" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -20361,7 +20275,7 @@
         <v>64200</v>
       </c>
       <c r="J600" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -20402,7 +20316,7 @@
         <v>64150</v>
       </c>
       <c r="J601" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -20443,7 +20357,7 @@
         <v>64150</v>
       </c>
       <c r="J602" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -20484,7 +20398,7 @@
         <v>64100</v>
       </c>
       <c r="J603" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -20525,7 +20439,7 @@
         <v>64200</v>
       </c>
       <c r="J604" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -20560,11 +20474,13 @@
         <v>-1248.46213562</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>64350</v>
+      </c>
       <c r="J605" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -20603,7 +20519,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -20642,7 +20558,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -20681,7 +20597,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -20720,7 +20636,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -20759,7 +20675,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -20798,7 +20714,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -20837,7 +20753,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -20876,7 +20792,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -20915,7 +20831,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -20954,7 +20870,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -20993,7 +20909,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -21032,7 +20948,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -21071,7 +20987,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -21106,19 +21022,19 @@
         <v>-931.4604356200007</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>64200</v>
+        <v>63950</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L619" t="n">
-        <v>1.013691588785047</v>
+        <v>1</v>
       </c>
       <c r="M619" t="inlineStr"/>
     </row>
@@ -21145,11 +21061,17 @@
         <v>-715.9195356200007</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21181,8 +21103,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21214,8 +21142,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21247,8 +21181,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21280,8 +21220,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21313,8 +21259,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21346,8 +21298,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21379,8 +21337,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21412,8 +21376,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21445,8 +21415,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21478,8 +21454,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21511,8 +21493,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21544,8 +21532,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21577,8 +21571,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21610,8 +21610,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21643,8 +21649,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>63950</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
